--- a/data/Club_List.xlsx
+++ b/data/Club_List.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christinetang/Library/Containers/com.microsoft.Excel/Data/Desktop/Hack20/uw-club-journey/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83A1EA3-84E5-2C4D-8DAD-DC8EBEE168E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66938325-CF51-5744-BF35-3900914F2DBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15860" windowHeight="16620" xr2:uid="{8E6F6593-B66D-F44B-81F2-FF06FC8117DE}"/>
+    <workbookView xWindow="11200" yWindow="2140" windowWidth="19900" windowHeight="16600" xr2:uid="{8E6F6593-B66D-F44B-81F2-FF06FC8117DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="105">
   <si>
     <t>Academy of General Dentistry</t>
   </si>
@@ -345,6 +345,9 @@
   </si>
   <si>
     <t>Club_Name</t>
+  </si>
+  <si>
+    <t>Task_Counts</t>
   </si>
 </sst>
 </file>
@@ -707,17 +710,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E0C1A0-4413-1746-9AD6-A225C9056688}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="52.83203125" customWidth="1"/>
     <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>103</v>
       </c>
@@ -727,8 +734,11 @@
       <c r="C1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -738,8 +748,12 @@
       <c r="C2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <f ca="1">RANDBETWEEN(1,15)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -749,8 +763,12 @@
       <c r="C3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <f t="shared" ref="D3:D51" ca="1" si="0">RANDBETWEEN(1,15)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -760,8 +778,12 @@
       <c r="C4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -771,8 +793,12 @@
       <c r="C5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -782,8 +808,12 @@
       <c r="C6" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -793,8 +823,12 @@
       <c r="C7" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -804,8 +838,12 @@
       <c r="C8" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -815,8 +853,12 @@
       <c r="C9" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -826,8 +868,12 @@
       <c r="C10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -837,8 +883,12 @@
       <c r="C11" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -848,8 +898,12 @@
       <c r="C12" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -859,8 +913,12 @@
       <c r="C13" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -870,8 +928,12 @@
       <c r="C14" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -881,8 +943,12 @@
       <c r="C15" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -892,8 +958,12 @@
       <c r="C16" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -903,8 +973,12 @@
       <c r="C17" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -914,8 +988,12 @@
       <c r="C18" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -925,8 +1003,12 @@
       <c r="C19" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -936,8 +1018,12 @@
       <c r="C20" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -947,8 +1033,12 @@
       <c r="C21" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -958,8 +1048,12 @@
       <c r="C22" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -969,8 +1063,12 @@
       <c r="C23" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -980,8 +1078,12 @@
       <c r="C24" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -991,8 +1093,12 @@
       <c r="C25" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1002,8 +1108,12 @@
       <c r="C26" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1013,8 +1123,12 @@
       <c r="C27" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1024,8 +1138,12 @@
       <c r="C28" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1035,8 +1153,12 @@
       <c r="C29" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1046,8 +1168,12 @@
       <c r="C30" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1057,8 +1183,12 @@
       <c r="C31" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1068,8 +1198,12 @@
       <c r="C32" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1079,8 +1213,12 @@
       <c r="C33" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1090,8 +1228,12 @@
       <c r="C34" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1101,8 +1243,12 @@
       <c r="C35" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1112,8 +1258,12 @@
       <c r="C36" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1123,8 +1273,12 @@
       <c r="C37" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1134,8 +1288,12 @@
       <c r="C38" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1145,8 +1303,12 @@
       <c r="C39" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1156,8 +1318,12 @@
       <c r="C40" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1167,8 +1333,12 @@
       <c r="C41" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1178,8 +1348,12 @@
       <c r="C42" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1189,8 +1363,12 @@
       <c r="C43" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1200,8 +1378,12 @@
       <c r="C44" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1211,8 +1393,12 @@
       <c r="C45" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1222,8 +1408,12 @@
       <c r="C46" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1233,8 +1423,12 @@
       <c r="C47" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1244,8 +1438,12 @@
       <c r="C48" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1255,8 +1453,12 @@
       <c r="C49" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1266,8 +1468,12 @@
       <c r="C50" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1276,6 +1482,10 @@
       </c>
       <c r="C51" t="s">
         <v>102</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
